--- a/auto_search/data/name_list.xlsx
+++ b/auto_search/data/name_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\name_searching\auto_search\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFA888-92AF-4FDE-95DD-24ECD1760EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4517B17-05E9-428E-99FE-7595D7FF7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Chi Yuan Chang</t>
-  </si>
-  <si>
     <t>Daniel Goldenholz</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>arlington, ma</t>
+  </si>
+  <si>
+    <t>united states</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Beth Israel Deaconess Medical Center</t>
+  </si>
+  <si>
+    <t>Chi-Yuan Chang</t>
   </si>
 </sst>
 </file>
@@ -351,27 +366,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
